--- a/results/real_data_guru_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_05/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.2_opt_constrained/k=0.2/ROI_greedy/dataset_05/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.2_opt_constrained\k=0.2\ROI_greedy\dataset_05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1D92E-7CC0-4D64-B095-20FC7E89B4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_05_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9063004846526656</v>
+        <v>0.90630048465266555</v>
       </c>
       <c r="O2">
         <v>759</v>
@@ -615,19 +704,19 @@
         <v>1.690359354786326</v>
       </c>
       <c r="R2">
-        <v>382.3496903299144</v>
+        <v>382.34969032991438</v>
       </c>
       <c r="S2">
-        <v>5.421428571428572</v>
+        <v>5.4214285714285717</v>
       </c>
       <c r="T2">
-        <v>6.342857142857143</v>
+        <v>6.3428571428571434</v>
       </c>
       <c r="U2">
         <v>1.847329320382866</v>
       </c>
       <c r="V2">
-        <v>367.0304213597991</v>
+        <v>367.03042135979911</v>
       </c>
       <c r="W2">
         <v>15176</v>
@@ -639,10 +728,10 @@
         <v>15118</v>
       </c>
       <c r="Z2">
-        <v>1.003836486307713</v>
+        <v>1.0038364863077129</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.9036372224846481</v>
+        <v>0.90363722248464806</v>
       </c>
       <c r="O3">
         <v>2272</v>
@@ -692,22 +781,22 @@
         <v>155</v>
       </c>
       <c r="Q3">
-        <v>2.684990662921795</v>
+        <v>2.6849906629217948</v>
       </c>
       <c r="R3">
-        <v>1700.826447247122</v>
+        <v>1700.8264472471219</v>
       </c>
       <c r="S3">
-        <v>14.65806451612903</v>
+        <v>14.658064516129031</v>
       </c>
       <c r="T3">
-        <v>15.71538461538461</v>
+        <v>15.715384615384609</v>
       </c>
       <c r="U3">
         <v>2.754640144362039</v>
       </c>
       <c r="V3">
-        <v>1554.896781232935</v>
+        <v>1554.8967812329349</v>
       </c>
       <c r="W3">
         <v>27884</v>
@@ -719,10 +808,10 @@
         <v>27680</v>
       </c>
       <c r="Z3">
-        <v>1.007369942196532</v>
+        <v>1.0073699421965321</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.9652278177458034</v>
+        <v>0.96522781774580335</v>
       </c>
       <c r="O4">
         <v>1818</v>
@@ -772,10 +861,10 @@
         <v>150</v>
       </c>
       <c r="Q4">
-        <v>2.494856980641168</v>
+        <v>2.4948569806411678</v>
       </c>
       <c r="R4">
-        <v>1293.771452903825</v>
+        <v>1293.7714529038251</v>
       </c>
       <c r="S4">
         <v>12.12</v>
@@ -784,10 +873,10 @@
         <v>13.88</v>
       </c>
       <c r="U4">
-        <v>2.630448955078658</v>
+        <v>2.6304489550786578</v>
       </c>
       <c r="V4">
-        <v>1281.193880615168</v>
+        <v>1281.1938806151679</v>
       </c>
       <c r="W4">
         <v>26601</v>
@@ -799,10 +888,10 @@
         <v>26543</v>
       </c>
       <c r="Z4">
-        <v>1.00218513355687</v>
+        <v>1.0021851335568699</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -855,19 +944,19 @@
         <v>1.763727955372169</v>
       </c>
       <c r="R5">
-        <v>629.4357691487054</v>
+        <v>629.43576914870539</v>
       </c>
       <c r="S5">
-        <v>5.834146341463414</v>
+        <v>5.8341463414634136</v>
       </c>
       <c r="T5">
-        <v>6.294444444444444</v>
+        <v>6.2944444444444443</v>
       </c>
       <c r="U5">
-        <v>1.839667410137796</v>
+        <v>1.8396674101377961</v>
       </c>
       <c r="V5">
-        <v>621.8598661751967</v>
+        <v>621.85986617519666</v>
       </c>
       <c r="W5">
         <v>19841</v>
@@ -882,7 +971,7 @@
         <v>1.001918901176589</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.8839436619718309</v>
+        <v>0.88394366197183094</v>
       </c>
       <c r="O6">
         <v>1975</v>
@@ -932,10 +1021,10 @@
         <v>200</v>
       </c>
       <c r="Q6">
-        <v>2.290006310787186</v>
+        <v>2.2900063107871862</v>
       </c>
       <c r="R6">
-        <v>1316.998737842563</v>
+        <v>1316.9987378425631</v>
       </c>
       <c r="S6">
         <v>9.875</v>
@@ -944,10 +1033,10 @@
         <v>13.552</v>
       </c>
       <c r="U6">
-        <v>2.606534137909699</v>
+        <v>2.6065341379096991</v>
       </c>
       <c r="V6">
-        <v>1243.183232761288</v>
+        <v>1243.1832327612881</v>
       </c>
       <c r="W6">
         <v>24913</v>
@@ -959,10 +1048,10 @@
         <v>24707</v>
       </c>
       <c r="Z6">
-        <v>1.008337718055612</v>
+        <v>1.0083377180556119</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.8775510204081632</v>
+        <v>0.87755102040816324</v>
       </c>
       <c r="O7">
         <v>1846</v>
@@ -1012,22 +1101,22 @@
         <v>474</v>
       </c>
       <c r="Q7">
-        <v>1.359569093367721</v>
+        <v>1.3595690933677209</v>
       </c>
       <c r="R7">
-        <v>727.5642497437003</v>
+        <v>727.56424974370032</v>
       </c>
       <c r="S7">
-        <v>3.89451476793249</v>
+        <v>3.8945147679324901</v>
       </c>
       <c r="T7">
-        <v>5.816</v>
+        <v>5.8159999999999998</v>
       </c>
       <c r="U7">
-        <v>1.760612740231218</v>
+        <v>1.7606127402312179</v>
       </c>
       <c r="V7">
-        <v>763.8468149421955</v>
+        <v>763.84681494219546</v>
       </c>
       <c r="W7">
         <v>17623</v>
@@ -1042,7 +1131,7 @@
         <v>1.009624749355486</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.2</v>
       </c>
       <c r="N8">
-        <v>0.9372171945701357</v>
+        <v>0.93721719457013575</v>
       </c>
       <c r="O8">
         <v>1973</v>
@@ -1092,22 +1181,22 @@
         <v>205</v>
       </c>
       <c r="Q8">
-        <v>2.264300526884207</v>
+        <v>2.2643005268842069</v>
       </c>
       <c r="R8">
-        <v>1303.818391988737</v>
+        <v>1303.8183919887369</v>
       </c>
       <c r="S8">
-        <v>9.62439024390244</v>
+        <v>9.6243902439024396</v>
       </c>
       <c r="T8">
-        <v>13.74615384615385</v>
+        <v>13.746153846153851</v>
       </c>
       <c r="U8">
         <v>2.620759064703845</v>
       </c>
       <c r="V8">
-        <v>1316.3013215885</v>
+        <v>1316.3013215885001</v>
       </c>
       <c r="W8">
         <v>23580</v>
@@ -1119,10 +1208,10 @@
         <v>23469</v>
       </c>
       <c r="Z8">
-        <v>1.004729643359325</v>
+        <v>1.0047296433593249</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.953660797034291</v>
+        <v>0.95366079703429096</v>
       </c>
       <c r="O9">
         <v>2458</v>
@@ -1172,22 +1261,22 @@
         <v>300</v>
       </c>
       <c r="Q9">
-        <v>2.103320815469779</v>
+        <v>2.1033208154697789</v>
       </c>
       <c r="R9">
         <v>1527.003755359066</v>
       </c>
       <c r="S9">
-        <v>8.193333333333333</v>
+        <v>8.1933333333333334</v>
       </c>
       <c r="T9">
         <v>11.29</v>
       </c>
       <c r="U9">
-        <v>2.42391737816157</v>
+        <v>2.4239173781615699</v>
       </c>
       <c r="V9">
-        <v>1573.216524367686</v>
+        <v>1573.2165243676859</v>
       </c>
       <c r="W9">
         <v>23698</v>
@@ -1199,10 +1288,10 @@
         <v>23598</v>
       </c>
       <c r="Z9">
-        <v>1.004237647258242</v>
+        <v>1.0042376472582419</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1332,7 @@
         <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.8682634730538922</v>
+        <v>0.86826347305389218</v>
       </c>
       <c r="O10">
         <v>1277</v>
@@ -1252,22 +1341,22 @@
         <v>275</v>
       </c>
       <c r="Q10">
-        <v>1.535497758365968</v>
+        <v>1.5354977583659679</v>
       </c>
       <c r="R10">
-        <v>579.7381164493588</v>
+        <v>579.73811644935881</v>
       </c>
       <c r="S10">
-        <v>4.643636363636364</v>
+        <v>4.6436363636363636</v>
       </c>
       <c r="T10">
         <v>7.96</v>
       </c>
       <c r="U10">
-        <v>2.074428999856292</v>
+        <v>2.0744289998562921</v>
       </c>
       <c r="V10">
-        <v>610.6963750179635</v>
+        <v>610.69637501796353</v>
       </c>
       <c r="W10">
         <v>21597</v>
@@ -1282,7 +1371,7 @@
         <v>1.006149545772187</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9921780986762936</v>
+        <v>0.99217809867629359</v>
       </c>
       <c r="O11">
         <v>1947</v>
@@ -1332,16 +1421,16 @@
         <v>285</v>
       </c>
       <c r="Q11">
-        <v>1.921555825103549</v>
+        <v>1.9215558251035489</v>
       </c>
       <c r="R11">
         <v>1114.356589845489</v>
       </c>
       <c r="S11">
-        <v>6.831578947368421</v>
+        <v>6.8315789473684214</v>
       </c>
       <c r="T11">
-        <v>8.669767441860465</v>
+        <v>8.6697674418604649</v>
       </c>
       <c r="U11">
         <v>2.159841967117873</v>
@@ -1360,9 +1449,52 @@
       </c>
       <c r="Z11">
         <v>1.000550241259629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.92496346646441407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0048940008298186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.86826347305389218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.009624749355486</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>